--- a/result/gr75_09_simulated/details.xlsx
+++ b/result/gr75_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7489957809448242</v>
+        <v>0.5515866279602051</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>768.8683727198477</v>
+        <v>763.422004028851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02864742105376693</v>
+        <v>0.0291592111127273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02403032168128105</v>
+        <v>0.02431361535913722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02107157646118667</v>
+        <v>0.02177951082962003</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01928485189552215</v>
+        <v>0.02003573029606406</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01808202583508148</v>
+        <v>0.01946759317727915</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01780591638019531</v>
+        <v>0.01842830622997898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01725456687103048</v>
+        <v>0.01811816810957158</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01668182605376871</v>
+        <v>0.01746033365562736</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01627190663871698</v>
+        <v>0.01675998033754384</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01627190663871698</v>
+        <v>0.01614792266184621</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01574747144388733</v>
+        <v>0.01583686515905356</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01574283111876291</v>
+        <v>0.01562031831073966</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01530668575783201</v>
+        <v>0.01547484634008248</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01530668575783201</v>
+        <v>0.01523928980627402</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01522100179787116</v>
+        <v>0.01523928980627402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01511000768947124</v>
+        <v>0.01521880520459229</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01508793942605254</v>
+        <v>0.01507589137739381</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01504026326074417</v>
+        <v>0.0149531288808537</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01504026326074417</v>
+        <v>0.01494433044889471</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01498768757738494</v>
+        <v>0.01488152054637136</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6950020790100098</v>
+        <v>0.5312278270721436</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>794.6627869603999</v>
+        <v>758.9649216285943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02859466087841899</v>
+        <v>0.02919310067863152</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02319013090234872</v>
+        <v>0.02395173217772089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02084872254432308</v>
+        <v>0.02240587448097198</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01937920280435442</v>
+        <v>0.02065471345684584</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01874620670170107</v>
+        <v>0.01921349161781889</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01804722848303713</v>
+        <v>0.01831714892507718</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01794247906617835</v>
+        <v>0.01788906728454151</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01727313477565003</v>
+        <v>0.01755175954823061</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01709070870785123</v>
+        <v>0.01707398797071064</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01647568808114004</v>
+        <v>0.01650204385099904</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01647568808114004</v>
+        <v>0.01588895695031006</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01606887950242532</v>
+        <v>0.01558452566071163</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01606887950242532</v>
+        <v>0.01558452566071163</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01590663464395498</v>
+        <v>0.01535079459020347</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01590663464395498</v>
+        <v>0.01527589677106527</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01583231270946771</v>
+        <v>0.01508091276864604</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01573306067150911</v>
+        <v>0.01505110543095962</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0156735063913519</v>
+        <v>0.01496826062795641</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01556973876055979</v>
+        <v>0.01488548934235925</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01549050266979337</v>
+        <v>0.01479463784851061</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5880072116851807</v>
+        <v>0.6627647876739502</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>754.5468365342658</v>
+        <v>772.3454484991344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02959207998581926</v>
+        <v>0.02850826916610752</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02345909935262028</v>
+        <v>0.02437627267256313</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02177693235233352</v>
+        <v>0.02124452028173654</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01966941133024939</v>
+        <v>0.01970331012014087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01875893472777817</v>
+        <v>0.01917412434197139</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01799141806984846</v>
+        <v>0.01827847498123716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01737927048587755</v>
+        <v>0.01732504200754465</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01717270331050005</v>
+        <v>0.01715313501785395</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01674651090625296</v>
+        <v>0.01661122532776104</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01611179282104555</v>
+        <v>0.01638774192204171</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01593543648706604</v>
+        <v>0.01638774192204171</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01593207596131035</v>
+        <v>0.0159877809852551</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01557788864369278</v>
+        <v>0.01585234186679805</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01532563347249655</v>
+        <v>0.01554308533675904</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01494432333874454</v>
+        <v>0.01548961947156114</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01494432333874454</v>
+        <v>0.01525764549510535</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01482864254616575</v>
+        <v>0.01525764549510535</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01478595528704087</v>
+        <v>0.01519141226536524</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01478595528704087</v>
+        <v>0.0150554668323418</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01470851533205196</v>
+        <v>0.0150554668323418</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5909550189971924</v>
+        <v>0.5480189323425293</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>748.0307613513542</v>
+        <v>768.7557478054841</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02958764539097442</v>
+        <v>0.02858914194274109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0252456437767337</v>
+        <v>0.02289459797593941</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02179511622463392</v>
+        <v>0.02059383023386789</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02040786289307505</v>
+        <v>0.01995797896127936</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01962557391201989</v>
+        <v>0.01864693947562354</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01862571704037893</v>
+        <v>0.01832024079235138</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01715783432118719</v>
+        <v>0.01727626067605043</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01630932492469951</v>
+        <v>0.01718903956280533</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01615915279145335</v>
+        <v>0.01637833514881277</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0160621142751421</v>
+        <v>0.01637833514881277</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01529658590315315</v>
+        <v>0.01568435669629203</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01522542543020065</v>
+        <v>0.0156835389704169</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0151580843653577</v>
+        <v>0.01546074179356897</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01500899984105581</v>
+        <v>0.01516924774570739</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01496499391838486</v>
+        <v>0.0150472627187991</v>
       </c>
       <c r="U5" t="n">
-        <v>0.014770489027302</v>
+        <v>0.0150472627187991</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01470271127306144</v>
+        <v>0.0150472627187991</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01466683134867328</v>
+        <v>0.01503054058263039</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0146123110613172</v>
+        <v>0.01501289857020675</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01458149632263848</v>
+        <v>0.01498549215995095</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5707082748413086</v>
+        <v>0.6875057220458984</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>758.5804066321416</v>
+        <v>773.2677809646284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0285217241844356</v>
+        <v>0.02873372457987006</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02232365482495085</v>
+        <v>0.02325534950990853</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01996694305849608</v>
+        <v>0.02193742082708855</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01985911075826978</v>
+        <v>0.01931502422015857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01924261094591758</v>
+        <v>0.01847940424367292</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01872413290728374</v>
+        <v>0.01786723515483411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01725918942490109</v>
+        <v>0.01721644798277264</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01703507174055481</v>
+        <v>0.01721644798277264</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0166034534146247</v>
+        <v>0.01679395622489825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.016165590204989</v>
+        <v>0.0164316081489612</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01597216289956672</v>
+        <v>0.01641766800801105</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0158728193250072</v>
+        <v>0.01589992298999089</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01544364473520815</v>
+        <v>0.0156416689924988</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0153274760998721</v>
+        <v>0.0156416689924988</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01512068519186216</v>
+        <v>0.01555317079354341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01498729483113206</v>
+        <v>0.01529150713697932</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01487907596487608</v>
+        <v>0.01529150713697932</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01487240345583152</v>
+        <v>0.01516563825096894</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01478806547613242</v>
+        <v>0.01510733573563288</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01478714242947644</v>
+        <v>0.0150734460227023</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5836200714111328</v>
+        <v>0.7499716281890869</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>758.7873787429344</v>
+        <v>757.4912447191273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02898846817588097</v>
+        <v>0.02880877708122558</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02390262975100633</v>
+        <v>0.02498516550167713</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02083586856514775</v>
+        <v>0.02136163391252212</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01932571865617211</v>
+        <v>0.02049073270265218</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0188825797088018</v>
+        <v>0.01966586239899683</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0178165644429809</v>
+        <v>0.01840371723420983</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01780187044383825</v>
+        <v>0.01781602001346617</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01686536754667701</v>
+        <v>0.01741029191311592</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01661731023564043</v>
+        <v>0.01631339834849248</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01599906352992945</v>
+        <v>0.01601670924476266</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01589592157360011</v>
+        <v>0.01593298684517554</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01561771590618723</v>
+        <v>0.01566631544272797</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01512990967890559</v>
+        <v>0.01544279152291834</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01512990967890559</v>
+        <v>0.01527313443532203</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0151239006690327</v>
+        <v>0.01489171819480735</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01507113363442447</v>
+        <v>0.01489171819480735</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01496635505402029</v>
+        <v>0.01481385779960585</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01493952924916056</v>
+        <v>0.01477480423638571</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01479117697354648</v>
+        <v>0.01477480423638571</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01479117697354648</v>
+        <v>0.01476591120310189</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5980010032653809</v>
+        <v>0.6718742847442627</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>782.5504323825244</v>
+        <v>784.5242615559964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02928322363663613</v>
+        <v>0.02890530376814575</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0237518668351549</v>
+        <v>0.02428823862717855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02082469560121933</v>
+        <v>0.02206179127280525</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02003497428427569</v>
+        <v>0.02124969692788641</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01882530471027778</v>
+        <v>0.01944666747266235</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01841635494133653</v>
+        <v>0.0184352012782944</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01841635494133653</v>
+        <v>0.01792144057672153</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01704158559362254</v>
+        <v>0.01778415966491387</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01704158559362254</v>
+        <v>0.01725290766047362</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01682772698959663</v>
+        <v>0.01713085394779034</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01656169016708337</v>
+        <v>0.01654021255728863</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01589503755734902</v>
+        <v>0.01634700363040347</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01575545202949744</v>
+        <v>0.01573363286279296</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01575545202949744</v>
+        <v>0.01573363286279296</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01536022858701145</v>
+        <v>0.01564359667377769</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01536022858701145</v>
+        <v>0.01555207004715836</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01536022858701145</v>
+        <v>0.01546397119322473</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01536022858701145</v>
+        <v>0.01538007651708735</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01527367343433552</v>
+        <v>0.01536376620065324</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01525439439342153</v>
+        <v>0.01529287059563346</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.578951358795166</v>
+        <v>0.6406235694885254</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>771.84197636311</v>
+        <v>769.194913445408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02904932205097853</v>
+        <v>0.02880802070235775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02374783523604708</v>
+        <v>0.02386165180329171</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02142725067673842</v>
+        <v>0.02142225736210604</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01986221509087204</v>
+        <v>0.02019862242082252</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01837831440325256</v>
+        <v>0.01910216296161166</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01835641109855122</v>
+        <v>0.01842003499199273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01764126161654876</v>
+        <v>0.01797263552390944</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01659128530274827</v>
+        <v>0.01666937600362633</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01633215007313138</v>
+        <v>0.01666937600362633</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01615333929253939</v>
+        <v>0.01660970949427341</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01604813063501026</v>
+        <v>0.01617918952150247</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01586771261957975</v>
+        <v>0.01591713569783143</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01556615508406389</v>
+        <v>0.01567296497253808</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01550090816615537</v>
+        <v>0.01537975044052354</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01550090816615537</v>
+        <v>0.01525442955620374</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01534333793792363</v>
+        <v>0.01518995618218199</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01524049431882247</v>
+        <v>0.01511507542041535</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01517360371901797</v>
+        <v>0.01505081112943678</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01506075451994026</v>
+        <v>0.01499494661371312</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0150456525606844</v>
+        <v>0.01499405289367267</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6240217685699463</v>
+        <v>0.5937929153442383</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>806.8648798438062</v>
+        <v>763.2117246748076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03029603271035349</v>
+        <v>0.02852373839707052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02467508270914092</v>
+        <v>0.02304180885986327</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02151876494067435</v>
+        <v>0.02107036949474379</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01963666175920283</v>
+        <v>0.01970042405779887</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0195480915661544</v>
+        <v>0.0187826303641657</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01881309594773115</v>
+        <v>0.01804015584283191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0183073351309579</v>
+        <v>0.01677156001290929</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01783278329280643</v>
+        <v>0.01616285869850623</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01782619042317579</v>
+        <v>0.01598107378101337</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01725722568297157</v>
+        <v>0.01554133689408702</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01708285944506401</v>
+        <v>0.01554133689408702</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01646058294151383</v>
+        <v>0.01535960166036978</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0164536358371468</v>
+        <v>0.01535960166036978</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01625702060546118</v>
+        <v>0.01531667352002395</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01600093403151932</v>
+        <v>0.01522062358735035</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0159556471402758</v>
+        <v>0.01514386462187435</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01586725260119296</v>
+        <v>0.0150706206537953</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01579895752572353</v>
+        <v>0.01503679995319366</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01578807003225718</v>
+        <v>0.01494994099992449</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01572836023087341</v>
+        <v>0.01487742153362198</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5930445194244385</v>
+        <v>0.6093349456787109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>774.3843897393981</v>
+        <v>751.6617062712121</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02900054247375559</v>
+        <v>0.02911580777740332</v>
       </c>
       <c r="G11" t="n">
-        <v>0.022599991489268</v>
+        <v>0.02482051390245419</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02171272774328759</v>
+        <v>0.02169419381170808</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02021325643783999</v>
+        <v>0.01993946896506335</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01938009794247954</v>
+        <v>0.01899268016579646</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01811109839025143</v>
+        <v>0.01852992231920022</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01811109839025143</v>
+        <v>0.01666341676627872</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01786434454235877</v>
+        <v>0.01608812272556948</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01705495555200994</v>
+        <v>0.01606382401946655</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01670163021017153</v>
+        <v>0.01585480815690737</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0164627274683457</v>
+        <v>0.01559528081540926</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01640477852311035</v>
+        <v>0.01537341703699672</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01598752688019818</v>
+        <v>0.01531918964780433</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01556609333726231</v>
+        <v>0.01520815314424989</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01556609333726231</v>
+        <v>0.01507831228824928</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01535686080667159</v>
+        <v>0.01492204813964542</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01530678474341863</v>
+        <v>0.01478643949493405</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01517462541230802</v>
+        <v>0.01477233674211043</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01516382763465562</v>
+        <v>0.0146562614272324</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01509521227562179</v>
+        <v>0.01465227497604702</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_09_simulated/details.xlsx
+++ b/result/gr75_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5515866279602051</v>
+        <v>1.192995548248291</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>763.422004028851</v>
+        <v>731.8656850743482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0291592111127273</v>
+        <v>0.02498864556530189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02431361535913722</v>
+        <v>0.02194695219327607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02177951082962003</v>
+        <v>0.01943285021106969</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02003573029606406</v>
+        <v>0.01923470042991602</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01946759317727915</v>
+        <v>0.01794443172541533</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01842830622997898</v>
+        <v>0.01734847014658198</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01811816810957158</v>
+        <v>0.01635935181110744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01746033365562736</v>
+        <v>0.01576643587777543</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01675998033754384</v>
+        <v>0.01559840031589149</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01614792266184621</v>
+        <v>0.01516226709881927</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01583686515905356</v>
+        <v>0.0150553378218259</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01562031831073966</v>
+        <v>0.01479826179918501</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01547484634008248</v>
+        <v>0.01457490868164615</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01523928980627402</v>
+        <v>0.01457490868164615</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01523928980627402</v>
+        <v>0.01456863998132421</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01521880520459229</v>
+        <v>0.01447322903898607</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01507589137739381</v>
+        <v>0.01445364772670935</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0149531288808537</v>
+        <v>0.01433110526677736</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01494433044889471</v>
+        <v>0.01429847660620753</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01488152054637136</v>
+        <v>0.01426638762328164</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5312278270721436</v>
+        <v>1.224028587341309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>758.9649216285943</v>
+        <v>730.3158482609979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02919310067863152</v>
+        <v>0.02485069369717733</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02395173217772089</v>
+        <v>0.02138248973729333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02240587448097198</v>
+        <v>0.01967757464729226</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02065471345684584</v>
+        <v>0.01898961368953497</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01921349161781889</v>
+        <v>0.01811619928885757</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01831714892507718</v>
+        <v>0.01783027823954008</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01788906728454151</v>
+        <v>0.01675131286624188</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01755175954823061</v>
+        <v>0.01620644792344667</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01707398797071064</v>
+        <v>0.0159949578815297</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01650204385099904</v>
+        <v>0.01570263259504949</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01588895695031006</v>
+        <v>0.01527896453524441</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01558452566071163</v>
+        <v>0.01527896453524441</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01558452566071163</v>
+        <v>0.01507221530459396</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01535079459020347</v>
+        <v>0.01485414014138568</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01527589677106527</v>
+        <v>0.01469557915462234</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01508091276864604</v>
+        <v>0.01468558598514464</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01505110543095962</v>
+        <v>0.01448584208913443</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01496826062795641</v>
+        <v>0.01431956872585758</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01488548934235925</v>
+        <v>0.01431332623905991</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01479463784851061</v>
+        <v>0.01423617637935668</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6627647876739502</v>
+        <v>1.356996536254883</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>772.3454484991344</v>
+        <v>704.4705420291648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02850826916610752</v>
+        <v>0.0250579384199764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02437627267256313</v>
+        <v>0.02195690500111553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02124452028173654</v>
+        <v>0.01959495072566492</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01970331012014087</v>
+        <v>0.0184839592767913</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01917412434197139</v>
+        <v>0.0175903625552576</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01827847498123716</v>
+        <v>0.01711701485722366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01732504200754465</v>
+        <v>0.01650247057267285</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01715313501785395</v>
+        <v>0.01575889368487766</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01661122532776104</v>
+        <v>0.01551635296109151</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01638774192204171</v>
+        <v>0.0151210483276648</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01638774192204171</v>
+        <v>0.01466235754574055</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0159877809852551</v>
+        <v>0.01462949826529896</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01585234186679805</v>
+        <v>0.01449683322082924</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01554308533675904</v>
+        <v>0.01424868847485683</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01548961947156114</v>
+        <v>0.01407171880458854</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01525764549510535</v>
+        <v>0.01407171880458854</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01525764549510535</v>
+        <v>0.01397295526906087</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01519141226536524</v>
+        <v>0.01390937022541233</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0150554668323418</v>
+        <v>0.01377854931563964</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0150554668323418</v>
+        <v>0.01373236924033459</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5480189323425293</v>
+        <v>1.213000059127808</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>768.7557478054841</v>
+        <v>732.52077144334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02858914194274109</v>
+        <v>0.02517636127337527</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02289459797593941</v>
+        <v>0.02219450631769508</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02059383023386789</v>
+        <v>0.02088022884012612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01995797896127936</v>
+        <v>0.01930571594687849</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01864693947562354</v>
+        <v>0.01820560030919771</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01832024079235138</v>
+        <v>0.01732855869333189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01727626067605043</v>
+        <v>0.01732855869333189</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01718903956280533</v>
+        <v>0.01580124329072133</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01637833514881277</v>
+        <v>0.01579559626417818</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01637833514881277</v>
+        <v>0.01568976161701368</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01568435669629203</v>
+        <v>0.01561773037275083</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0156835389704169</v>
+        <v>0.01531888298685674</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01546074179356897</v>
+        <v>0.01530003496743054</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01516924774570739</v>
+        <v>0.01494854500320816</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0150472627187991</v>
+        <v>0.01479752907869003</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0150472627187991</v>
+        <v>0.01461499495378399</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0150472627187991</v>
+        <v>0.01455304832516502</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01503054058263039</v>
+        <v>0.01440176768161375</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01501289857020675</v>
+        <v>0.01429800914701965</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01498549215995095</v>
+        <v>0.0142791573380768</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6875057220458984</v>
+        <v>1.18199610710144</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>773.2677809646284</v>
+        <v>718.5821435960315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02873372457987006</v>
+        <v>0.02487803379383803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02325534950990853</v>
+        <v>0.02202643385855739</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02193742082708855</v>
+        <v>0.02005557514555638</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01931502422015857</v>
+        <v>0.01917533730051952</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01847940424367292</v>
+        <v>0.01818308221352864</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01786723515483411</v>
+        <v>0.01733813731047677</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01721644798277264</v>
+        <v>0.01664827598744452</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01721644798277264</v>
+        <v>0.01590022561246267</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01679395622489825</v>
+        <v>0.01585477850565765</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0164316081489612</v>
+        <v>0.0154719574856087</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01641766800801105</v>
+        <v>0.01508859191933925</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01589992298999089</v>
+        <v>0.01507029995913987</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0156416689924988</v>
+        <v>0.01490388392549773</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0156416689924988</v>
+        <v>0.01470896233552659</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01555317079354341</v>
+        <v>0.014572573309832</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01529150713697932</v>
+        <v>0.01432252345289496</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01529150713697932</v>
+        <v>0.01423230642111649</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01516563825096894</v>
+        <v>0.01414788692306109</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01510733573563288</v>
+        <v>0.01405105593457219</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0150734460227023</v>
+        <v>0.01400744919290509</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7499716281890869</v>
+        <v>1.243043899536133</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>757.4912447191273</v>
+        <v>720.6989829430386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02880877708122558</v>
+        <v>0.02500324008744786</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02498516550167713</v>
+        <v>0.02171208522362391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02136163391252212</v>
+        <v>0.01891917729849667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02049073270265218</v>
+        <v>0.01857565267749674</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01966586239899683</v>
+        <v>0.01717513031805876</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01840371723420983</v>
+        <v>0.01717513031805876</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01781602001346617</v>
+        <v>0.01622743093615392</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01741029191311592</v>
+        <v>0.0156561498309973</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01631339834849248</v>
+        <v>0.01492983308180764</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01601670924476266</v>
+        <v>0.01492983308180764</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01593298684517554</v>
+        <v>0.01492983308180764</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01566631544272797</v>
+        <v>0.01478320019913647</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01544279152291834</v>
+        <v>0.01447594598501875</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01527313443532203</v>
+        <v>0.01438294076666856</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01489171819480735</v>
+        <v>0.01437318440031735</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01489171819480735</v>
+        <v>0.01437219420832749</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01481385779960585</v>
+        <v>0.01437219420832749</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01477480423638571</v>
+        <v>0.01423772058458032</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01477480423638571</v>
+        <v>0.0141253217996441</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01476591120310189</v>
+        <v>0.01404871311779802</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6718742847442627</v>
+        <v>1.125962257385254</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>784.5242615559964</v>
+        <v>725.9503162243218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02890530376814575</v>
+        <v>0.02565526101116538</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02428823862717855</v>
+        <v>0.02142918479130106</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02206179127280525</v>
+        <v>0.01987471020284703</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02124969692788641</v>
+        <v>0.01885862481892634</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01944666747266235</v>
+        <v>0.01749663321410973</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0184352012782944</v>
+        <v>0.01721769175635604</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01792144057672153</v>
+        <v>0.01665135011585184</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01778415966491387</v>
+        <v>0.01621726467583233</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01725290766047362</v>
+        <v>0.01621726467583233</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01713085394779034</v>
+        <v>0.0154452800018192</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01654021255728863</v>
+        <v>0.01533788327949087</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01634700363040347</v>
+        <v>0.01507702493664742</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01573363286279296</v>
+        <v>0.0148995861537669</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01573363286279296</v>
+        <v>0.01466025764726464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01564359667377769</v>
+        <v>0.01466025764726464</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01555207004715836</v>
+        <v>0.01455537825373848</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01546397119322473</v>
+        <v>0.01432183647550558</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01538007651708735</v>
+        <v>0.01424394963428683</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01536376620065324</v>
+        <v>0.01418002715359705</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01529287059563346</v>
+        <v>0.01415107828897313</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6406235694885254</v>
+        <v>1.104996919631958</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>769.194913445408</v>
+        <v>753.2128301522007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02880802070235775</v>
+        <v>0.02544959897322169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02386165180329171</v>
+        <v>0.02217108256278091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02142225736210604</v>
+        <v>0.02014027365615055</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02019862242082252</v>
+        <v>0.0190137965797641</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01910216296161166</v>
+        <v>0.01890171115846173</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01842003499199273</v>
+        <v>0.01742171362875708</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01797263552390944</v>
+        <v>0.017080220748544</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01666937600362633</v>
+        <v>0.01608815032188172</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01666937600362633</v>
+        <v>0.01608815032188172</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01660970949427341</v>
+        <v>0.01582658847494658</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01617918952150247</v>
+        <v>0.01579846187927887</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01591713569783143</v>
+        <v>0.01548992952066672</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01567296497253808</v>
+        <v>0.01548992952066672</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01537975044052354</v>
+        <v>0.0153517140403353</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01525442955620374</v>
+        <v>0.01517179200735323</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01518995618218199</v>
+        <v>0.01485674339299354</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01511507542041535</v>
+        <v>0.01485674339299354</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01505081112943678</v>
+        <v>0.01480150057749943</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01499494661371312</v>
+        <v>0.01472443309641193</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01499405289367267</v>
+        <v>0.01468251130900976</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5937929153442383</v>
+        <v>1.274001598358154</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>763.2117246748076</v>
+        <v>735.5095723066861</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02852373839707052</v>
+        <v>0.0248661752498197</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02304180885986327</v>
+        <v>0.02104954793624803</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02107036949474379</v>
+        <v>0.01933114715552968</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01970042405779887</v>
+        <v>0.01799173343314044</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0187826303641657</v>
+        <v>0.01784957692807966</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01804015584283191</v>
+        <v>0.01690344968458247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01677156001290929</v>
+        <v>0.01651886557780286</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01616285869850623</v>
+        <v>0.01585943608549592</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01598107378101337</v>
+        <v>0.01585943608549592</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01554133689408702</v>
+        <v>0.0156407934300766</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01554133689408702</v>
+        <v>0.01555555273406623</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01535960166036978</v>
+        <v>0.01505762722664242</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01535960166036978</v>
+        <v>0.01488702045274615</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01531667352002395</v>
+        <v>0.01488702045274615</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01522062358735035</v>
+        <v>0.01474253436415187</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01514386462187435</v>
+        <v>0.01471447362005528</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0150706206537953</v>
+        <v>0.01460734539775811</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01503679995319366</v>
+        <v>0.01439545235856393</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01494994099992449</v>
+        <v>0.01439545235856393</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01487742153362198</v>
+        <v>0.01433741856348316</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6093349456787109</v>
+        <v>1.044998407363892</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>751.6617062712121</v>
+        <v>724.639497773429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02911580777740332</v>
+        <v>0.02563122447068902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02482051390245419</v>
+        <v>0.02221389097834603</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02169419381170808</v>
+        <v>0.01977291570025325</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01993946896506335</v>
+        <v>0.01860012697132081</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01899268016579646</v>
+        <v>0.01818854816680721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01852992231920022</v>
+        <v>0.01730812771839519</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01666341676627872</v>
+        <v>0.01691892478077543</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01608812272556948</v>
+        <v>0.01641038178983463</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01606382401946655</v>
+        <v>0.01571405475518844</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01585480815690737</v>
+        <v>0.01568725221936229</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01559528081540926</v>
+        <v>0.01542743328736361</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01537341703699672</v>
+        <v>0.01495031502956067</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01531918964780433</v>
+        <v>0.0148251271002158</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01520815314424989</v>
+        <v>0.0146737571664184</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01507831228824928</v>
+        <v>0.014567572552859</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01492204813964542</v>
+        <v>0.01436357730645542</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01478643949493405</v>
+        <v>0.01430008063248147</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01477233674211043</v>
+        <v>0.0142477258429142</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0146562614272324</v>
+        <v>0.01417948397815851</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01465227497604702</v>
+        <v>0.01412552627238653</v>
       </c>
     </row>
   </sheetData>
